--- a/Sales_and_marketing/data.xlsx
+++ b/Sales_and_marketing/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya Pathania\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DDD038-3008-4E88-ACDD-8161204F22AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F4DAE8-7D3D-46F1-908B-6329FE6AEF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{8CF1B652-1320-4CA4-B04D-DD88EE528D23}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="2" xr2:uid="{8CF1B652-1320-4CA4-B04D-DD88EE528D23}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity_data" sheetId="1" r:id="rId1"/>
     <sheet name="attendance" sheetId="2" r:id="rId2"/>
+    <sheet name="Introduction to sales and marke" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="88">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -239,6 +240,57 @@
   </si>
   <si>
     <t>Yuvraj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sr No. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class </t>
+  </si>
+  <si>
+    <t>Male/ Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Duration </t>
+  </si>
+  <si>
+    <t>activity _name</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>25 min</t>
+  </si>
+  <si>
+    <t>Introduction to sales and marketing post test</t>
+  </si>
+  <si>
+    <t>Ankit</t>
+  </si>
+  <si>
+    <t>Princedeep singh</t>
+  </si>
+  <si>
+    <t>Jaspreet kaur</t>
+  </si>
+  <si>
+    <t>Roshan</t>
+  </si>
+  <si>
+    <t>Sahil Kumar</t>
+  </si>
+  <si>
+    <t>Sehajpreet Singh</t>
+  </si>
+  <si>
+    <t>Randeep Singh</t>
+  </si>
+  <si>
+    <t>Abhi</t>
+  </si>
+  <si>
+    <t>Mohit kumar</t>
   </si>
 </sst>
 </file>
@@ -444,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,6 +549,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41FF7AC-0589-41F4-85B9-B78C51E44B68}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -3284,4 +3338,742 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FD7CF1-AA83-45FF-B01A-BF2CE94A0B9D}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="19">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sales_and_marketing/data.xlsx
+++ b/Sales_and_marketing/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya Pathania\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F4DAE8-7D3D-46F1-908B-6329FE6AEF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458CC9DD-666F-4D8C-A9D0-FD47DAC337ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="2" xr2:uid="{8CF1B652-1320-4CA4-B04D-DD88EE528D23}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{8CF1B652-1320-4CA4-B04D-DD88EE528D23}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity_data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="86">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -107,18 +107,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>ABSENT</t>
-  </si>
-  <si>
-    <t>present</t>
-  </si>
-  <si>
-    <t>Absent</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abhinav </t>
   </si>
   <si>
@@ -291,6 +279,12 @@
   </si>
   <si>
     <t>Mohit kumar</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -1126,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41FF7AC-0589-41F4-85B9-B78C51E44B68}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1196,43 +1190,43 @@
         <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1240,49 +1234,49 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1290,49 +1284,49 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1340,49 +1334,49 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1390,49 +1384,49 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1440,49 +1434,49 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1490,49 +1484,49 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1540,49 +1534,49 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1590,49 +1584,49 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1640,49 +1634,49 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1690,49 +1684,49 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1740,49 +1734,49 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1790,49 +1784,49 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1840,49 +1834,49 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1890,49 +1884,49 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1940,49 +1934,49 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1990,49 +1984,49 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -2040,49 +2034,49 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2090,49 +2084,49 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2140,49 +2134,49 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2190,49 +2184,49 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2240,49 +2234,49 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2290,49 +2284,49 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2340,49 +2334,49 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2390,49 +2384,49 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2440,49 +2434,49 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2490,49 +2484,49 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2540,49 +2534,49 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2590,49 +2584,49 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2640,49 +2634,49 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2690,49 +2684,49 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2740,49 +2734,49 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -2790,49 +2784,49 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2840,49 +2834,49 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2890,49 +2884,49 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2940,49 +2934,49 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -2990,49 +2984,49 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -3040,49 +3034,49 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -3090,49 +3084,49 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -3140,49 +3134,49 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O41" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P41" s="13" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -3190,49 +3184,49 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -3240,49 +3234,49 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3290,49 +3284,49 @@
         <v>43</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N44" s="16" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3344,7 +3338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FD7CF1-AA83-45FF-B01A-BF2CE94A0B9D}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -3352,25 +3346,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3378,16 +3372,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G2" s="19">
         <v>11</v>
@@ -3398,16 +3392,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G3" s="19">
         <v>11</v>
@@ -3418,16 +3412,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G4" s="19">
         <v>11</v>
@@ -3438,16 +3432,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G5" s="19">
         <v>16</v>
@@ -3458,16 +3452,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G6" s="19">
         <v>16</v>
@@ -3478,16 +3472,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G7" s="19">
         <v>11</v>
@@ -3498,16 +3492,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G8" s="19">
         <v>17</v>
@@ -3518,16 +3512,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G9" s="19">
         <v>18</v>
@@ -3538,16 +3532,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G10" s="19">
         <v>18</v>
@@ -3558,16 +3552,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G11" s="19">
         <v>16</v>
@@ -3578,16 +3572,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G12" s="19">
         <v>13</v>
@@ -3598,16 +3592,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G13" s="19">
         <v>14</v>
@@ -3618,16 +3612,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G14" s="19">
         <v>13</v>
@@ -3638,16 +3632,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G15" s="19">
         <v>12</v>
@@ -3658,16 +3652,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G16" s="19">
         <v>15</v>
@@ -3678,16 +3672,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G17" s="19">
         <v>10</v>
@@ -3698,16 +3692,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G18" s="19">
         <v>15</v>
@@ -3718,16 +3712,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G19" s="19">
         <v>17</v>
@@ -3738,16 +3732,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G20" s="19">
         <v>16</v>
@@ -3758,16 +3752,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G21" s="19">
         <v>16</v>
@@ -3778,16 +3772,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G22" s="19">
         <v>16</v>
@@ -3798,16 +3792,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G23" s="19">
         <v>17</v>
@@ -3818,16 +3812,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G24" s="19">
         <v>9</v>
@@ -3838,16 +3832,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G25" s="19">
         <v>13</v>
@@ -3858,16 +3852,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G26" s="19">
         <v>11</v>
@@ -3878,16 +3872,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G27" s="19">
         <v>19</v>
@@ -3898,16 +3892,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G28" s="19">
         <v>17</v>
@@ -3918,16 +3912,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G29" s="19">
         <v>12</v>
@@ -3938,16 +3932,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G30" s="19">
         <v>7</v>
@@ -3958,16 +3952,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G31" s="19">
         <v>11</v>
@@ -3978,16 +3972,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G32" s="19">
         <v>12</v>
@@ -3998,16 +3992,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G33" s="19">
         <v>17</v>
@@ -4018,16 +4012,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G34" s="19">
         <v>18</v>
@@ -4038,16 +4032,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G35" s="19">
         <v>15</v>
@@ -4058,16 +4052,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G36" s="19">
         <v>13</v>

--- a/Sales_and_marketing/data.xlsx
+++ b/Sales_and_marketing/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya Pathania\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458CC9DD-666F-4D8C-A9D0-FD47DAC337ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EA23E8-C9A0-415C-A3F0-D81198627C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{8CF1B652-1320-4CA4-B04D-DD88EE528D23}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="85">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Ajay</t>
-  </si>
-  <si>
-    <t>male</t>
   </si>
   <si>
     <t>Aniket</t>
@@ -1120,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41FF7AC-0589-41F4-85B9-B78C51E44B68}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1190,43 +1187,43 @@
         <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1240,43 +1237,43 @@
         <v>25</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1287,46 +1284,46 @@
         <v>27</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1334,49 +1331,49 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1384,49 +1381,49 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1434,49 +1431,49 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1484,49 +1481,49 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1534,49 +1531,49 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1584,49 +1581,49 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1634,49 +1631,49 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1684,49 +1681,49 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1734,49 +1731,49 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1784,49 +1781,49 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1834,49 +1831,49 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1884,49 +1881,49 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1934,49 +1931,49 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1984,49 +1981,49 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -2034,49 +2031,49 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2084,49 +2081,49 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2134,49 +2131,49 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2184,49 +2181,49 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2234,49 +2231,49 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2284,49 +2281,49 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2334,49 +2331,49 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2384,49 +2381,49 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2434,49 +2431,49 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2484,49 +2481,49 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2534,49 +2531,49 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2584,49 +2581,49 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2634,49 +2631,49 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2684,49 +2681,49 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2734,49 +2731,49 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -2784,49 +2781,49 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2834,49 +2831,49 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2884,49 +2881,49 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2934,49 +2931,49 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -2984,49 +2981,49 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -3034,49 +3031,49 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -3084,49 +3081,49 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -3134,49 +3131,49 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O41" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P41" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -3184,49 +3181,49 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -3234,49 +3231,49 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3284,49 +3281,49 @@
         <v>43</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N44" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3346,25 +3343,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3372,16 +3369,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G2" s="19">
         <v>11</v>
@@ -3392,16 +3389,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G3" s="19">
         <v>11</v>
@@ -3412,16 +3409,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G4" s="19">
         <v>11</v>
@@ -3438,10 +3435,10 @@
         <v>25</v>
       </c>
       <c r="E5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G5" s="19">
         <v>16</v>
@@ -3452,16 +3449,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G6" s="19">
         <v>16</v>
@@ -3472,16 +3469,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G7" s="19">
         <v>11</v>
@@ -3492,16 +3489,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G8" s="19">
         <v>17</v>
@@ -3512,16 +3509,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G9" s="19">
         <v>18</v>
@@ -3532,16 +3529,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G10" s="19">
         <v>18</v>
@@ -3552,16 +3549,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G11" s="19">
         <v>16</v>
@@ -3572,16 +3569,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G12" s="19">
         <v>13</v>
@@ -3592,16 +3589,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G13" s="19">
         <v>14</v>
@@ -3612,16 +3609,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G14" s="19">
         <v>13</v>
@@ -3632,16 +3629,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G15" s="19">
         <v>12</v>
@@ -3652,16 +3649,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="E16" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G16" s="19">
         <v>15</v>
@@ -3672,16 +3669,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G17" s="19">
         <v>10</v>
@@ -3692,16 +3689,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G18" s="19">
         <v>15</v>
@@ -3712,16 +3709,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G19" s="19">
         <v>17</v>
@@ -3732,16 +3729,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G20" s="19">
         <v>16</v>
@@ -3752,16 +3749,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G21" s="19">
         <v>16</v>
@@ -3772,16 +3769,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G22" s="19">
         <v>16</v>
@@ -3792,16 +3789,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G23" s="19">
         <v>17</v>
@@ -3812,16 +3809,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G24" s="19">
         <v>9</v>
@@ -3832,16 +3829,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G25" s="19">
         <v>13</v>
@@ -3852,16 +3849,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G26" s="19">
         <v>11</v>
@@ -3872,16 +3869,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G27" s="19">
         <v>19</v>
@@ -3898,10 +3895,10 @@
         <v>25</v>
       </c>
       <c r="E28" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G28" s="19">
         <v>17</v>
@@ -3912,16 +3909,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G29" s="19">
         <v>12</v>
@@ -3932,16 +3929,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G30" s="19">
         <v>7</v>
@@ -3952,16 +3949,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G31" s="19">
         <v>11</v>
@@ -3972,16 +3969,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G32" s="19">
         <v>12</v>
@@ -3992,16 +3989,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G33" s="19">
         <v>17</v>
@@ -4012,16 +4009,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G34" s="19">
         <v>18</v>
@@ -4032,16 +4029,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G35" s="19">
         <v>15</v>
@@ -4052,16 +4049,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="G36" s="19">
         <v>13</v>

--- a/Sales_and_marketing/data.xlsx
+++ b/Sales_and_marketing/data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya Pathania\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EA23E8-C9A0-415C-A3F0-D81198627C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C19BAE-D426-4E91-8262-02E83B7DAFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{8CF1B652-1320-4CA4-B04D-DD88EE528D23}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{8CF1B652-1320-4CA4-B04D-DD88EE528D23}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity_data" sheetId="1" r:id="rId1"/>
     <sheet name="attendance" sheetId="2" r:id="rId2"/>
-    <sheet name="Introduction to sales and marke" sheetId="3" r:id="rId3"/>
+    <sheet name="mark" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="86">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Marks-11-09-2024</t>
   </si>
 </sst>
 </file>
@@ -1115,18 +1118,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41FF7AC-0589-41F4-85B9-B78C51E44B68}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1175,8 +1179,11 @@
       <c r="P1" s="8">
         <v>45574</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1226,7 +1233,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1276,7 +1283,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1326,7 +1333,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1376,7 +1383,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1426,7 +1433,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1476,7 +1483,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1526,7 +1533,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1576,7 +1583,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1626,7 +1633,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1676,7 +1683,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1726,7 +1733,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1776,7 +1783,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1826,7 +1833,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1876,7 +1883,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3335,11 +3342,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FD7CF1-AA83-45FF-B01A-BF2CE94A0B9D}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
